--- a/Project Management/GANTT_Schedule.xlsx
+++ b/Project Management/GANTT_Schedule.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Molly Meadows\OneDrive - University of Idaho\Documents\2023-2024\Capstone Project\26-Physical-Rehabilitation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vandalsuidaho-my.sharepoint.com/personal/mead9103_vandals_uidaho_edu/Documents/Documents/2023-2024/Capstone Project/26-Physical-Rehabilitation/Project Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415B79EC-AA60-4D64-843C-06D23DE9907A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{415B79EC-AA60-4D64-843C-06D23DE9907A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69C54E5B-522C-47FF-8377-54C3EF081FCE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,6 +38,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
+    <t>Capstone Project Enhanced AI Physical Rehabilitation</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
     <t>Last Updated:</t>
   </si>
   <si>
@@ -74,43 +80,16 @@
     <t>May</t>
   </si>
   <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
     <t>Assigned</t>
   </si>
   <si>
-    <t>Task Description</t>
-  </si>
-  <si>
-    <t>Project:</t>
-  </si>
-  <si>
-    <t>Capstone Project Enhanced AI Physical Rehabilitation</t>
-  </si>
-  <si>
-    <t>Project Plan</t>
-  </si>
-  <si>
-    <t>Snapshot Day #1</t>
-  </si>
-  <si>
-    <t>Concept Design Review</t>
-  </si>
-  <si>
-    <t>Snapshot Day #2</t>
-  </si>
-  <si>
-    <t>Project Portfolio</t>
-  </si>
-  <si>
-    <t>Engineering Release Review</t>
-  </si>
-  <si>
-    <t>Snapshot Day #3</t>
-  </si>
-  <si>
-    <t>UI Design Expo</t>
-  </si>
-  <si>
-    <t>Design Report</t>
+    <t>DUE DATES:</t>
   </si>
   <si>
     <r>
@@ -136,7 +115,58 @@
     </r>
   </si>
   <si>
-    <t>DUE DATES:</t>
+    <t>Sept. 21</t>
+  </si>
+  <si>
+    <t>Project Plan</t>
+  </si>
+  <si>
+    <t>Oct. 3</t>
+  </si>
+  <si>
+    <t>Snapshot Day #1</t>
+  </si>
+  <si>
+    <t>Oct 10.</t>
+  </si>
+  <si>
+    <t>Concept Design Review</t>
+  </si>
+  <si>
+    <t>Nov. 10</t>
+  </si>
+  <si>
+    <t>Snapshot Day #2</t>
+  </si>
+  <si>
+    <t>Dec. 5</t>
+  </si>
+  <si>
+    <t>Project Portfolio</t>
+  </si>
+  <si>
+    <t>Dec. 8</t>
+  </si>
+  <si>
+    <t>Engineering Release Review</t>
+  </si>
+  <si>
+    <t>Feb. 16</t>
+  </si>
+  <si>
+    <t>Snapshot Day #3</t>
+  </si>
+  <si>
+    <t>Mar. 27</t>
+  </si>
+  <si>
+    <t>UI Design Expo</t>
+  </si>
+  <si>
+    <t>Apr. 26</t>
+  </si>
+  <si>
+    <t>Design Report</t>
   </si>
   <si>
     <t>Project Milestones:</t>
@@ -145,12 +175,15 @@
     <t>Extract Skeletal Data from Smart phone</t>
   </si>
   <si>
+    <t>Collect a database of videos for analysis</t>
+  </si>
+  <si>
+    <t>Build Training model</t>
+  </si>
+  <si>
     <t>Compare Skeletal data in training model</t>
   </si>
   <si>
-    <t>Build Training model</t>
-  </si>
-  <si>
     <t>Ensure Accuracy of training model</t>
   </si>
   <si>
@@ -166,46 +199,13 @@
     <t>Add more exercises</t>
   </si>
   <si>
+    <t>IF TIME</t>
+  </si>
+  <si>
     <t>Make sure model can differeniate exercises</t>
   </si>
   <si>
     <t>User interface</t>
-  </si>
-  <si>
-    <t>Due</t>
-  </si>
-  <si>
-    <t>Sept. 21</t>
-  </si>
-  <si>
-    <t>Oct. 3</t>
-  </si>
-  <si>
-    <t>Oct 10.</t>
-  </si>
-  <si>
-    <t>Nov. 10</t>
-  </si>
-  <si>
-    <t>Dec. 5</t>
-  </si>
-  <si>
-    <t>Dec. 8</t>
-  </si>
-  <si>
-    <t>Feb. 16</t>
-  </si>
-  <si>
-    <t>Mar. 27</t>
-  </si>
-  <si>
-    <t>Apr. 26</t>
-  </si>
-  <si>
-    <t>Collect a database of videos for analysis</t>
-  </si>
-  <si>
-    <t>IF TIME</t>
   </si>
   <si>
     <t>Green = Complete</t>
@@ -225,7 +225,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -433,6 +433,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,15 +459,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,171 +797,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD37"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="21" width="5.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="45" width="5.88671875" customWidth="1"/>
+    <col min="6" max="10" width="5.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="13" width="6.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="17" width="6.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="5.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="21" width="6.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="45" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" s="1" customFormat="1" ht="18">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" s="1" customFormat="1" ht="18">
       <c r="D2" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56">
       <c r="D3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="24">
+        <v>2</v>
+      </c>
+      <c r="E3" s="29">
         <v>45199</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="29"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:56" s="2" customFormat="1">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="25">
+        <v>3</v>
+      </c>
+      <c r="E4" s="30">
         <v>2023</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="27">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="32">
         <v>2024</v>
       </c>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="27"/>
-      <c r="AO4" s="27"/>
-      <c r="AP4" s="27"/>
-      <c r="AQ4" s="27"/>
-    </row>
-    <row r="5" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+    </row>
+    <row r="5" spans="1:56" s="2" customFormat="1">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22" t="s">
+      <c r="E5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22" t="s">
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22" t="s">
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22" t="s">
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22" t="s">
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22" t="s">
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-    </row>
-    <row r="6" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+    </row>
+    <row r="6" spans="1:56" s="8" customFormat="1">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5">
         <v>43346</v>
@@ -1136,7 +1138,7 @@
       <c r="BC6" s="7"/>
       <c r="BD6" s="7"/>
     </row>
-    <row r="7" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" s="13" customFormat="1">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1194,10 +1196,10 @@
       <c r="BC7" s="12"/>
       <c r="BD7" s="12"/>
     </row>
-    <row r="8" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" s="13" customFormat="1">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1254,17 +1256,17 @@
       <c r="BC8" s="12"/>
       <c r="BD8" s="12"/>
     </row>
-    <row r="9" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" s="2" customFormat="1">
       <c r="B9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -1302,19 +1304,19 @@
       <c r="AP9" s="16"/>
       <c r="AQ9" s="16"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56">
       <c r="B10" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -1350,12 +1352,12 @@
       <c r="AP10" s="14"/>
       <c r="AQ10" s="14"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56">
       <c r="B11" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1398,12 +1400,12 @@
       <c r="AP11" s="14"/>
       <c r="AQ11" s="14"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56">
       <c r="B12" s="14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -1446,12 +1448,12 @@
       <c r="AP12" s="14"/>
       <c r="AQ12" s="14"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56">
       <c r="B13" s="14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -1494,12 +1496,12 @@
       <c r="AP13" s="14"/>
       <c r="AQ13" s="14"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56">
       <c r="B14" s="14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -1542,12 +1544,12 @@
       <c r="AP14" s="14"/>
       <c r="AQ14" s="14"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56">
       <c r="B15" s="14" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1590,12 +1592,12 @@
       <c r="AP15" s="14"/>
       <c r="AQ15" s="14"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56">
       <c r="B16" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1638,12 +1640,12 @@
       <c r="AP16" s="14"/>
       <c r="AQ16" s="14"/>
     </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:43">
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1686,11 +1688,11 @@
       <c r="AP17" s="14"/>
       <c r="AQ17" s="14"/>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:43">
       <c r="B18" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="31">
+        <v>36</v>
+      </c>
+      <c r="C18" s="23">
         <v>45050</v>
       </c>
       <c r="D18" s="14"/>
@@ -1734,7 +1736,7 @@
       <c r="AP18" s="14"/>
       <c r="AQ18" s="14"/>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:43">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -1778,9 +1780,9 @@
       <c r="AP19" s="14"/>
       <c r="AQ19" s="14"/>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:43">
       <c r="B20" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1824,20 +1826,20 @@
       <c r="AP20" s="14"/>
       <c r="AQ20" s="14"/>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:43">
       <c r="B21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="31">
+        <v>38</v>
+      </c>
+      <c r="C21" s="23">
         <v>45209</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -1872,11 +1874,11 @@
       <c r="AP21" s="14"/>
       <c r="AQ21" s="14"/>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:43">
       <c r="B22" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="31">
+        <v>39</v>
+      </c>
+      <c r="C22" s="23">
         <v>45226</v>
       </c>
       <c r="D22" s="14"/>
@@ -1920,11 +1922,11 @@
       <c r="AP22" s="14"/>
       <c r="AQ22" s="14"/>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:43">
       <c r="B23" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="31">
+        <v>40</v>
+      </c>
+      <c r="C23" s="23">
         <v>45260</v>
       </c>
       <c r="D23" s="14"/>
@@ -1968,11 +1970,11 @@
       <c r="AP23" s="14"/>
       <c r="AQ23" s="14"/>
     </row>
-    <row r="24" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="32">
+    <row r="24" spans="2:43" s="2" customFormat="1">
+      <c r="B24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="24">
         <v>45281</v>
       </c>
       <c r="D24" s="16"/>
@@ -2016,11 +2018,11 @@
       <c r="AP24" s="14"/>
       <c r="AQ24" s="14"/>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:43">
       <c r="B25" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="31">
+        <v>42</v>
+      </c>
+      <c r="C25" s="23">
         <v>44951</v>
       </c>
       <c r="D25" s="14"/>
@@ -2064,11 +2066,11 @@
       <c r="AP25" s="14"/>
       <c r="AQ25" s="14"/>
     </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:43">
       <c r="B26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="31">
+        <v>43</v>
+      </c>
+      <c r="C26" s="23">
         <v>44958</v>
       </c>
       <c r="D26" s="14"/>
@@ -2112,11 +2114,11 @@
       <c r="AP26" s="14"/>
       <c r="AQ26" s="14"/>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:43">
       <c r="B27" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="31">
+        <v>44</v>
+      </c>
+      <c r="C27" s="23">
         <v>44986</v>
       </c>
       <c r="D27" s="14"/>
@@ -2160,11 +2162,11 @@
       <c r="AP27" s="14"/>
       <c r="AQ27" s="14"/>
     </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:43">
       <c r="B28" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="31">
+        <v>45</v>
+      </c>
+      <c r="C28" s="23">
         <v>45017</v>
       </c>
       <c r="D28" s="14"/>
@@ -2208,12 +2210,12 @@
       <c r="AP28" s="14"/>
       <c r="AQ28" s="14"/>
     </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:43">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -2255,34 +2257,34 @@
       <c r="AP29" s="14"/>
       <c r="AQ29" s="14"/>
     </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
-        <v>36</v>
+    <row r="30" spans="2:43">
+      <c r="B30" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="C30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:43">
+      <c r="B31" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
-        <v>37</v>
-      </c>
       <c r="C31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
         <v>52</v>
       </c>
     </row>
